--- a/3.9/left.xlsx
+++ b/3.9/left.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Documents\GitHub\students.mathsnz.com\3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -141,12 +141,69 @@
   </si>
   <si>
     <t>Assessment Guidelines</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Onscreen Questions</t>
+  </si>
+  <si>
+    <t>bivariate1problem</t>
+  </si>
+  <si>
+    <t>bivariate2plan1</t>
+  </si>
+  <si>
+    <t>bivariate2plan2</t>
+  </si>
+  <si>
+    <t>bivariate4analysis01</t>
+  </si>
+  <si>
+    <t>bivariate4analysis02</t>
+  </si>
+  <si>
+    <t>bivariate4analysis03</t>
+  </si>
+  <si>
+    <t>bivariate4analysis04</t>
+  </si>
+  <si>
+    <t>bivariate4analysis05</t>
+  </si>
+  <si>
+    <t>bivariate4analysis06</t>
+  </si>
+  <si>
+    <t>bivariate4analysis07</t>
+  </si>
+  <si>
+    <t>bivariate4analysis08</t>
+  </si>
+  <si>
+    <t>bivariate4analysis09</t>
+  </si>
+  <si>
+    <t>bivariate4analysis10</t>
+  </si>
+  <si>
+    <t>bivariate4analysis11</t>
+  </si>
+  <si>
+    <t>bivariate5conclusion</t>
+  </si>
+  <si>
+    <t>app5</t>
+  </si>
+  <si>
+    <t>Sample Internal (at Achieved Level)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,7 +530,7 @@
     <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -507,8 +564,14 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.9_1.html'&gt;</v>
@@ -539,10 +602,21 @@
         <f>IF(ISNUMBER(SEARCH("_",G2))," class='indent'","")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="str">
+        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/"&amp;G2&amp;".pdf&amp;embedded=true"</f>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/1.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O2&amp;"2,"&amp;O2&amp;"3,"&amp;O2&amp;"4,"&amp;O2&amp;"5,"&amp;O2&amp;"6,"</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate1problem2,bivariate1problem3,bivariate1problem4,bivariate1problem5,bivariate1problem6,</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A25" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
+        <f t="shared" ref="A3:A26" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.9_2.html'&gt;</v>
       </c>
       <c r="B3" t="s">
@@ -564,15 +638,19 @@
         <v>2</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H25" si="2">"3.9_"&amp;G3</f>
+        <f t="shared" ref="H3:H26" si="2">"3.9_"&amp;G3</f>
         <v>3.9_2</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I25" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
+        <f t="shared" ref="I3:I26" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M26" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/"&amp;G3&amp;".pdf&amp;embedded=true"</f>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_2_1.html' class='indent'&gt;</v>
@@ -603,8 +681,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/2_1.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N4" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O4&amp;"2,"&amp;O4&amp;"3,"&amp;O4&amp;"4,"&amp;O4&amp;"5,"&amp;O4&amp;"6,"</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate2plan12,bivariate2plan13,bivariate2plan14,bivariate2plan15,bivariate2plan16,</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_2_2.html' class='indent'&gt;</v>
@@ -616,11 +705,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E21" si="4">LEFT(B5,FIND(":",B5)-1)</f>
+        <f t="shared" ref="E5:E21" si="5">LEFT(B5,FIND(":",B5)-1)</f>
         <v>Part 2.2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F16" si="5">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
+        <f t="shared" ref="F5:F16" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
         <v>2.2</v>
       </c>
       <c r="G5" t="str">
@@ -635,8 +724,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/2_2.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N5" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O5&amp;"2,"&amp;O5&amp;"3,"&amp;O5&amp;"4,"&amp;O5&amp;"5,"&amp;O5&amp;"6,"</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate2plan22,bivariate2plan23,bivariate2plan24,bivariate2plan25,bivariate2plan26,</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_3.html'&gt;</v>
@@ -648,11 +748,11 @@
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 3</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G6" t="str">
@@ -667,8 +767,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4.html'&gt;</v>
@@ -680,11 +784,11 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G7" t="str">
@@ -699,8 +803,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_1.html' class='indent'&gt;</v>
@@ -712,11 +820,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.1</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1</v>
       </c>
       <c r="G8" t="str">
@@ -731,8 +839,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_1.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N8" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O8&amp;"2,"&amp;O8&amp;"3,"&amp;O8&amp;"4,"&amp;O8&amp;"5,"&amp;O8&amp;"6,"</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis012,bivariate4analysis013,bivariate4analysis014,bivariate4analysis015,bivariate4analysis016,</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_2.html' class='indent'&gt;</v>
@@ -744,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.2</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
       <c r="G9" t="str">
@@ -763,8 +882,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_2.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:N19" si="7">"http://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis022,bivariate4analysis023,bivariate4analysis024,bivariate4analysis025,bivariate4analysis026,</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_3.html' class='indent'&gt;</v>
@@ -776,11 +906,11 @@
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.3</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3</v>
       </c>
       <c r="G10" t="str">
@@ -795,8 +925,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_3.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis032,bivariate4analysis033,bivariate4analysis034,bivariate4analysis035,bivariate4analysis036,</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_4.html' class='indent'&gt;</v>
@@ -808,11 +949,11 @@
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.4</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4</v>
       </c>
       <c r="G11" t="str">
@@ -827,8 +968,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_4.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis042,bivariate4analysis043,bivariate4analysis044,bivariate4analysis045,bivariate4analysis046,</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_5.html' class='indent'&gt;</v>
@@ -840,11 +992,11 @@
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.5</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="G12" t="str">
@@ -859,8 +1011,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_5.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis052,bivariate4analysis053,bivariate4analysis054,bivariate4analysis055,bivariate4analysis056,</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_6.html' class='indent'&gt;</v>
@@ -872,11 +1035,11 @@
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.6</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6</v>
       </c>
       <c r="G13" t="str">
@@ -891,8 +1054,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_6.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis062,bivariate4analysis063,bivariate4analysis064,bivariate4analysis065,bivariate4analysis066,</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_7.html' class='indent'&gt;</v>
@@ -904,11 +1078,11 @@
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.7</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7</v>
       </c>
       <c r="G14" t="str">
@@ -923,8 +1097,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_7.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis072,bivariate4analysis073,bivariate4analysis074,bivariate4analysis075,bivariate4analysis076,</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_8.html' class='indent'&gt;</v>
@@ -936,11 +1121,11 @@
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.8</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
       <c r="G15" t="str">
@@ -955,8 +1140,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_8.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis082,bivariate4analysis083,bivariate4analysis084,bivariate4analysis085,bivariate4analysis086,</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_9.html' class='indent'&gt;</v>
@@ -968,11 +1164,11 @@
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.9</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9</v>
       </c>
       <c r="G16" t="str">
@@ -987,8 +1183,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_9.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis092,bivariate4analysis093,bivariate4analysis094,bivariate4analysis095,bivariate4analysis096,</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_10.html' class='indent'&gt;</v>
@@ -1000,15 +1207,15 @@
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.10</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F21" si="6">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
+        <f t="shared" ref="F17:F21" si="8">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
         <v>4.10</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ref="G17:G21" si="7">SUBSTITUTE(F17,".","_")</f>
+        <f t="shared" ref="G17:G21" si="9">SUBSTITUTE(F17,".","_")</f>
         <v>4_10</v>
       </c>
       <c r="H17" t="str">
@@ -1019,8 +1226,19 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_10.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="7"/>
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis102,bivariate4analysis103,bivariate4analysis104,bivariate4analysis105,bivariate4analysis106,</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_11.html' class='indent'&gt;</v>
@@ -1032,27 +1250,38 @@
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 4.11</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.11</v>
       </c>
       <c r="G18" t="str">
+        <f t="shared" si="9"/>
+        <v>4_11</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>3.9_4_11</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> class='indent'</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_11.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="7"/>
-        <v>4_11</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>3.9_4_11</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis112,bivariate4analysis113,bivariate4analysis114,bivariate4analysis115,bivariate4analysis116,</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_5.html'&gt;</v>
@@ -1064,27 +1293,38 @@
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 5</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G19" t="str">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>3.9_5</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/5.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>3.9_5</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate5conclusion2,bivariate5conclusion3,bivariate5conclusion4,bivariate5conclusion5,bivariate5conclusion6,</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_6a.html'&gt;</v>
@@ -1096,15 +1336,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 6a</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6a</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6a</v>
       </c>
       <c r="H20" t="str">
@@ -1115,8 +1355,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/6a.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>"&lt;a href='"&amp;H21&amp;".html'"&amp;I21&amp;"&gt;"</f>
         <v>&lt;a href='3.9_6b.html'&gt;</v>
@@ -1128,15 +1372,15 @@
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Part 6b</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6b</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6b</v>
       </c>
       <c r="H21" t="str">
@@ -1147,8 +1391,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/6b.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app1.html'&gt;</v>
@@ -1163,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G25" si="8">SUBSTITUTE(F22,".","_")</f>
+        <f t="shared" ref="G22:G26" si="10">SUBSTITUTE(F22,".","_")</f>
         <v>app1</v>
       </c>
       <c r="H22" t="str">
@@ -1174,8 +1422,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app2.html'&gt;</v>
@@ -1190,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>app2</v>
       </c>
       <c r="H23" t="str">
@@ -1201,8 +1453,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app3.html'&gt;</v>
@@ -1217,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>app3</v>
       </c>
       <c r="H24" t="str">
@@ -1228,32 +1484,70 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M24" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
+        <v>&lt;a href='3.9_app5.html'&gt;</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>3.9_app5</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app5.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app4.html'&gt;</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>20</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="8"/>
+      <c r="G26" t="str">
+        <f t="shared" si="10"/>
         <v>app4</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>3.9_app4</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="4"/>
+        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app4.pdf&amp;embedded=true</v>
       </c>
     </row>
   </sheetData>

--- a/3.9/left.xlsx
+++ b/3.9/left.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/3.9/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -203,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,9 +307,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -336,9 +342,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -521,16 +527,16 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.9_1.html'&gt;</v>
@@ -603,18 +609,18 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/"&amp;G2&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/1.pdf&amp;embedded=true</v>
+        <f>"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/"&amp;G2&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/1.pdf&amp;embedded=true</v>
       </c>
       <c r="N2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O2&amp;"2,"&amp;O2&amp;"3,"&amp;O2&amp;"4,"&amp;O2&amp;"5,"&amp;O2&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate1problem2,bivariate1problem3,bivariate1problem4,bivariate1problem5,bivariate1problem6,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O2&amp;"2,"&amp;O2&amp;"3,"&amp;O2&amp;"4,"&amp;O2&amp;"5,"&amp;O2&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate1problem2,bivariate1problem3,bivariate1problem4,bivariate1problem5,bivariate1problem6,</v>
       </c>
       <c r="O2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A26" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.9_2.html'&gt;</v>
@@ -646,11 +652,11 @@
         <v/>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M26" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/"&amp;G3&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/2.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M3:M26" si="4">"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/"&amp;G3&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_2_1.html' class='indent'&gt;</v>
@@ -683,17 +689,17 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/2_1.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/2_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N4" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O4&amp;"2,"&amp;O4&amp;"3,"&amp;O4&amp;"4,"&amp;O4&amp;"5,"&amp;O4&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate2plan12,bivariate2plan13,bivariate2plan14,bivariate2plan15,bivariate2plan16,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O4&amp;"2,"&amp;O4&amp;"3,"&amp;O4&amp;"4,"&amp;O4&amp;"5,"&amp;O4&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate2plan12,bivariate2plan13,bivariate2plan14,bivariate2plan15,bivariate2plan16,</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_2_2.html' class='indent'&gt;</v>
@@ -726,17 +732,17 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/2_2.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/2_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N5" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O5&amp;"2,"&amp;O5&amp;"3,"&amp;O5&amp;"4,"&amp;O5&amp;"5,"&amp;O5&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate2plan22,bivariate2plan23,bivariate2plan24,bivariate2plan25,bivariate2plan26,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O5&amp;"2,"&amp;O5&amp;"3,"&amp;O5&amp;"4,"&amp;O5&amp;"5,"&amp;O5&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate2plan22,bivariate2plan23,bivariate2plan24,bivariate2plan25,bivariate2plan26,</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_3.html'&gt;</v>
@@ -769,10 +775,10 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/3.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4.html'&gt;</v>
@@ -805,10 +811,10 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_1.html' class='indent'&gt;</v>
@@ -841,17 +847,17 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_1.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N8" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O8&amp;"2,"&amp;O8&amp;"3,"&amp;O8&amp;"4,"&amp;O8&amp;"5,"&amp;O8&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis012,bivariate4analysis013,bivariate4analysis014,bivariate4analysis015,bivariate4analysis016,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O8&amp;"2,"&amp;O8&amp;"3,"&amp;O8&amp;"4,"&amp;O8&amp;"5,"&amp;O8&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis012,bivariate4analysis013,bivariate4analysis014,bivariate4analysis015,bivariate4analysis016,</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_2.html' class='indent'&gt;</v>
@@ -884,17 +890,17 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_2.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ref="N9:N19" si="7">"http://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis022,bivariate4analysis023,bivariate4analysis024,bivariate4analysis025,bivariate4analysis026,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis022,bivariate4analysis023,bivariate4analysis024,bivariate4analysis025,bivariate4analysis026,</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_3.html' class='indent'&gt;</v>
@@ -927,17 +933,17 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_3.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_3.pdf&amp;embedded=true</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis032,bivariate4analysis033,bivariate4analysis034,bivariate4analysis035,bivariate4analysis036,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O10&amp;"2,"&amp;O10&amp;"3,"&amp;O10&amp;"4,"&amp;O10&amp;"5,"&amp;O10&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis032,bivariate4analysis033,bivariate4analysis034,bivariate4analysis035,bivariate4analysis036,</v>
       </c>
       <c r="O10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_4.html' class='indent'&gt;</v>
@@ -970,17 +976,17 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_4.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_4.pdf&amp;embedded=true</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis042,bivariate4analysis043,bivariate4analysis044,bivariate4analysis045,bivariate4analysis046,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O11&amp;"2,"&amp;O11&amp;"3,"&amp;O11&amp;"4,"&amp;O11&amp;"5,"&amp;O11&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis042,bivariate4analysis043,bivariate4analysis044,bivariate4analysis045,bivariate4analysis046,</v>
       </c>
       <c r="O11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_5.html' class='indent'&gt;</v>
@@ -1013,17 +1019,17 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_5.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_5.pdf&amp;embedded=true</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis052,bivariate4analysis053,bivariate4analysis054,bivariate4analysis055,bivariate4analysis056,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O12&amp;"2,"&amp;O12&amp;"3,"&amp;O12&amp;"4,"&amp;O12&amp;"5,"&amp;O12&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis052,bivariate4analysis053,bivariate4analysis054,bivariate4analysis055,bivariate4analysis056,</v>
       </c>
       <c r="O12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_6.html' class='indent'&gt;</v>
@@ -1056,17 +1062,17 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_6.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_6.pdf&amp;embedded=true</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis062,bivariate4analysis063,bivariate4analysis064,bivariate4analysis065,bivariate4analysis066,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O13&amp;"2,"&amp;O13&amp;"3,"&amp;O13&amp;"4,"&amp;O13&amp;"5,"&amp;O13&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis062,bivariate4analysis063,bivariate4analysis064,bivariate4analysis065,bivariate4analysis066,</v>
       </c>
       <c r="O13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_7.html' class='indent'&gt;</v>
@@ -1099,17 +1105,17 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_7.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_7.pdf&amp;embedded=true</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis072,bivariate4analysis073,bivariate4analysis074,bivariate4analysis075,bivariate4analysis076,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O14&amp;"2,"&amp;O14&amp;"3,"&amp;O14&amp;"4,"&amp;O14&amp;"5,"&amp;O14&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis072,bivariate4analysis073,bivariate4analysis074,bivariate4analysis075,bivariate4analysis076,</v>
       </c>
       <c r="O14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_8.html' class='indent'&gt;</v>
@@ -1142,17 +1148,17 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_8.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_8.pdf&amp;embedded=true</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis082,bivariate4analysis083,bivariate4analysis084,bivariate4analysis085,bivariate4analysis086,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O15&amp;"2,"&amp;O15&amp;"3,"&amp;O15&amp;"4,"&amp;O15&amp;"5,"&amp;O15&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis082,bivariate4analysis083,bivariate4analysis084,bivariate4analysis085,bivariate4analysis086,</v>
       </c>
       <c r="O15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_9.html' class='indent'&gt;</v>
@@ -1185,17 +1191,17 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_9.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_9.pdf&amp;embedded=true</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis092,bivariate4analysis093,bivariate4analysis094,bivariate4analysis095,bivariate4analysis096,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O16&amp;"2,"&amp;O16&amp;"3,"&amp;O16&amp;"4,"&amp;O16&amp;"5,"&amp;O16&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis092,bivariate4analysis093,bivariate4analysis094,bivariate4analysis095,bivariate4analysis096,</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_10.html' class='indent'&gt;</v>
@@ -1211,11 +1217,11 @@
         <v>Part 4.10</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F21" si="8">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
+        <f t="shared" ref="F17:F21" si="7">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
         <v>4.10</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ref="G17:G21" si="9">SUBSTITUTE(F17,".","_")</f>
+        <f t="shared" ref="G17:G21" si="8">SUBSTITUTE(F17,".","_")</f>
         <v>4_10</v>
       </c>
       <c r="H17" t="str">
@@ -1228,17 +1234,17 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_10.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_10.pdf&amp;embedded=true</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis102,bivariate4analysis103,bivariate4analysis104,bivariate4analysis105,bivariate4analysis106,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O17&amp;"2,"&amp;O17&amp;"3,"&amp;O17&amp;"4,"&amp;O17&amp;"5,"&amp;O17&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis102,bivariate4analysis103,bivariate4analysis104,bivariate4analysis105,bivariate4analysis106,</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_4_11.html' class='indent'&gt;</v>
@@ -1254,11 +1260,11 @@
         <v>Part 4.11</v>
       </c>
       <c r="F18" t="str">
+        <f t="shared" si="7"/>
+        <v>4.11</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="8"/>
-        <v>4.11</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="9"/>
         <v>4_11</v>
       </c>
       <c r="H18" t="str">
@@ -1271,17 +1277,17 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/4_11.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/4_11.pdf&amp;embedded=true</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate4analysis112,bivariate4analysis113,bivariate4analysis114,bivariate4analysis115,bivariate4analysis116,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O18&amp;"2,"&amp;O18&amp;"3,"&amp;O18&amp;"4,"&amp;O18&amp;"5,"&amp;O18&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate4analysis112,bivariate4analysis113,bivariate4analysis114,bivariate4analysis115,bivariate4analysis116,</v>
       </c>
       <c r="O18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_5.html'&gt;</v>
@@ -1297,13 +1303,13 @@
         <v>Part 5</v>
       </c>
       <c r="F19" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>3.9_5</v>
@@ -1314,17 +1320,17 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/5.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/5.pdf&amp;embedded=true</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#bivariate5conclusion2,bivariate5conclusion3,bivariate5conclusion4,bivariate5conclusion5,bivariate5conclusion6,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O19&amp;"2,"&amp;O19&amp;"3,"&amp;O19&amp;"4,"&amp;O19&amp;"5,"&amp;O19&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#bivariate5conclusion2,bivariate5conclusion3,bivariate5conclusion4,bivariate5conclusion5,bivariate5conclusion6,</v>
       </c>
       <c r="O19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_6a.html'&gt;</v>
@@ -1340,13 +1346,13 @@
         <v>Part 6a</v>
       </c>
       <c r="F20" t="str">
+        <f t="shared" si="7"/>
+        <v>6a</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="8"/>
         <v>6a</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="9"/>
-        <v>6a</v>
-      </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>3.9_6a</v>
@@ -1357,10 +1363,10 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/6a.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/6a.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>"&lt;a href='"&amp;H21&amp;".html'"&amp;I21&amp;"&gt;"</f>
         <v>&lt;a href='3.9_6b.html'&gt;</v>
@@ -1376,13 +1382,13 @@
         <v>Part 6b</v>
       </c>
       <c r="F21" t="str">
+        <f t="shared" si="7"/>
+        <v>6b</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="8"/>
         <v>6b</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="9"/>
-        <v>6b</v>
-      </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>3.9_6b</v>
@@ -1393,10 +1399,10 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/6b.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/6b.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app1.html'&gt;</v>
@@ -1411,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G26" si="10">SUBSTITUTE(F22,".","_")</f>
+        <f t="shared" ref="G22:G26" si="9">SUBSTITUTE(F22,".","_")</f>
         <v>app1</v>
       </c>
       <c r="H22" t="str">
@@ -1424,10 +1430,10 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app1.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/app1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app2.html'&gt;</v>
@@ -1442,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>app2</v>
       </c>
       <c r="H23" t="str">
@@ -1455,10 +1461,10 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app2.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/app2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app3.html'&gt;</v>
@@ -1473,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>app3</v>
       </c>
       <c r="H24" t="str">
@@ -1486,10 +1492,10 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app3.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/app3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app5.html'&gt;</v>
@@ -1516,10 +1522,10 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app5.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/app5.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.9_app4.html'&gt;</v>
@@ -1534,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>app4</v>
       </c>
       <c r="H26" t="str">
@@ -1547,7 +1553,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.9/pdfs/app4.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.9/pdfs/app4.pdf&amp;embedded=true</v>
       </c>
     </row>
   </sheetData>
